--- a/PartyStatus_Backup.xlsx
+++ b/PartyStatus_Backup.xlsx
@@ -525,7 +525,7 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
     <col width="19.6640625" customWidth="1" style="6" min="2" max="3"/>
     <col width="11.5" customWidth="1" style="6" min="4" max="4"/>
@@ -668,11 +668,11 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GOOD</t>
+          <t>GREAT</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -1208,6 +1208,38 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Test case</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Age of the First Pantheon</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1/3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" t="inlineStr">
@@ -1282,11 +1314,11 @@
         <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TERRIBLE</t>
+          <t>BAD</t>
         </is>
       </c>
       <c r="F18" t="b">

--- a/PartyStatus_Backup.xlsx
+++ b/PartyStatus_Backup.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="860" windowWidth="38400" windowHeight="22540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -522,10 +522,10 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col width="19.6640625" customWidth="1" style="6" min="2" max="3"/>
     <col width="11.5" customWidth="1" style="6" min="4" max="4"/>
@@ -668,11 +668,11 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GREAT</t>
+          <t>GOOD</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -1207,38 +1207,6 @@
       </c>
       <c r="F14" t="b">
         <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Test case</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Age of the First Pantheon</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>1/3</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="O14" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="15">
